--- a/data/report_df/irs.xlsx
+++ b/data/report_df/irs.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,6 +530,167 @@
         <v>1.021269623304751</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.7489285731928166</v>
+      </c>
+      <c r="C8">
+        <v>0.8279462115860953</v>
+      </c>
+      <c r="D8">
+        <v>0.8055372423794177</v>
+      </c>
+      <c r="E8">
+        <v>0.9906730972243635</v>
+      </c>
+      <c r="F8">
+        <v>1.197432579484514</v>
+      </c>
+      <c r="G8">
+        <v>0.7602408221395534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1.10010523950836</v>
+      </c>
+      <c r="C9">
+        <v>1.12279591879383</v>
+      </c>
+      <c r="D9">
+        <v>1.537163856773588</v>
+      </c>
+      <c r="E9">
+        <v>1.264524664494019</v>
+      </c>
+      <c r="F9">
+        <v>1.1351442256939</v>
+      </c>
+      <c r="G9">
+        <v>0.946760951598782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.8231969701403786</v>
+      </c>
+      <c r="C10">
+        <v>1.164292629627047</v>
+      </c>
+      <c r="D10">
+        <v>1.063463882421663</v>
+      </c>
+      <c r="E10">
+        <v>1.101371799224184</v>
+      </c>
+      <c r="F10">
+        <v>1.301639401483388</v>
+      </c>
+      <c r="G10">
+        <v>1.06516361803197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.7308399557844771</v>
+      </c>
+      <c r="C11">
+        <v>0.6789794128506424</v>
+      </c>
+      <c r="D11">
+        <v>0.6116870057193515</v>
+      </c>
+      <c r="E11">
+        <v>0.6490724813146383</v>
+      </c>
+      <c r="F11">
+        <v>0.9481986454493596</v>
+      </c>
+      <c r="G11">
+        <v>1.234403594205529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.9303135594904726</v>
+      </c>
+      <c r="C12">
+        <v>1.174207595199213</v>
+      </c>
+      <c r="D12">
+        <v>0.9822517680118442</v>
+      </c>
+      <c r="E12">
+        <v>1.135300177435434</v>
+      </c>
+      <c r="F12">
+        <v>1.281085910869446</v>
+      </c>
+      <c r="G12">
+        <v>1.341625807083262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.898281320836375</v>
+      </c>
+      <c r="C13">
+        <v>0.8523280122664625</v>
+      </c>
+      <c r="D13">
+        <v>1.147700678224136</v>
+      </c>
+      <c r="E13">
+        <v>1.050865029082537</v>
+      </c>
+      <c r="F13">
+        <v>1.142395796240432</v>
+      </c>
+      <c r="G13">
+        <v>1.074238764262095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1.264939569612696</v>
+      </c>
+      <c r="C14">
+        <v>1.11724155029655</v>
+      </c>
+      <c r="D14">
+        <v>1.081276692631159</v>
+      </c>
+      <c r="E14">
+        <v>1.443104718815984</v>
+      </c>
+      <c r="F14">
+        <v>1.382728978810254</v>
+      </c>
+      <c r="G14">
+        <v>1.360412685622154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/report_df/irs.xlsx
+++ b/data/report_df/irs.xlsx
@@ -1,40 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -365,333 +420,339 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0.3334857704529206</v>
-      </c>
-      <c r="C2">
-        <v>0.5546383694205399</v>
-      </c>
-      <c r="D2">
-        <v>0.7510960829194384</v>
-      </c>
-      <c r="E2">
-        <v>0.6290972170599823</v>
-      </c>
-      <c r="F2">
-        <v>0.8201398313605262</v>
-      </c>
-      <c r="G2">
-        <v>0.717228754221889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="B2" t="n">
+        <v>0.5351433061877278</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9569185815088443</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8609414660942359</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6181472628535867</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4357012363747155</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5368695402449548</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0.7619234941126453</v>
-      </c>
-      <c r="C3">
-        <v>0.8800184214759619</v>
-      </c>
-      <c r="D3">
-        <v>0.9533066688890527</v>
-      </c>
-      <c r="E3">
-        <v>0.4964673727741222</v>
-      </c>
-      <c r="F3">
-        <v>0.5026289356031686</v>
-      </c>
-      <c r="G3">
-        <v>0.4101031055152976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="B3" t="n">
+        <v>0.7626511024772044</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.143569392574702</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.143892471788408</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8071507938604868</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3299246272632383</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2817021759450887</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1.310371572998423</v>
-      </c>
-      <c r="C4">
-        <v>1.538583866587817</v>
-      </c>
-      <c r="D4">
-        <v>1.469982268303538</v>
-      </c>
-      <c r="E4">
-        <v>0.7301308639233565</v>
-      </c>
-      <c r="F4">
-        <v>0.6043521683390313</v>
-      </c>
-      <c r="G4">
-        <v>0.6907162088712904</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="B4" t="n">
+        <v>1.142570144335553</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.850259757995012</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.713760043128039</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5038911198194802</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2102137281171118</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3783886657930369</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>0.7832716594938595</v>
-      </c>
-      <c r="C5">
-        <v>0.9329309010961587</v>
-      </c>
-      <c r="D5">
-        <v>0.9896680628549377</v>
-      </c>
-      <c r="E5">
-        <v>0.7679143305021153</v>
-      </c>
-      <c r="F5">
-        <v>0.5952758028059654</v>
-      </c>
-      <c r="G5">
-        <v>0.7609018279225445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="B5" t="n">
+        <v>0.266815975129434</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7427851203417672</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.010122288158747</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8376923243255269</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7652922886560153</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.003899613251115</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0.9408985322182145</v>
-      </c>
-      <c r="C6">
-        <v>0.8495057492164685</v>
-      </c>
-      <c r="D6">
-        <v>0.7518456330838491</v>
-      </c>
-      <c r="E6">
-        <v>0.8441300215958287</v>
-      </c>
-      <c r="F6">
-        <v>0.6418176996107582</v>
-      </c>
-      <c r="G6">
-        <v>0.6021639845305253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="B6" t="n">
+        <v>0.8571765072245512</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.160568573425263</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.133985044854712</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.594367711899723</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.355497643177343</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.241955858197137</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1.631469190807608</v>
-      </c>
-      <c r="C7">
-        <v>1.633381953823013</v>
-      </c>
-      <c r="D7">
-        <v>1.324494624593581</v>
-      </c>
-      <c r="E7">
-        <v>1.242329652285625</v>
-      </c>
-      <c r="F7">
-        <v>1.003401870086685</v>
-      </c>
-      <c r="G7">
-        <v>1.021269623304751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="B7" t="n">
+        <v>1.204587817356916</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.120992650892099</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.334326087297705</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.380777666685344</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.404045728073611</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.3014387391615</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>0.7489285731928166</v>
-      </c>
-      <c r="C8">
-        <v>0.8279462115860953</v>
-      </c>
-      <c r="D8">
-        <v>0.8055372423794177</v>
-      </c>
-      <c r="E8">
-        <v>0.9906730972243635</v>
-      </c>
-      <c r="F8">
-        <v>1.197432579484514</v>
-      </c>
-      <c r="G8">
-        <v>0.7602408221395534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="B8" t="n">
+        <v>1.471183516540787</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.504497186658187</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.640605721017747</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.728385174614268</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.600017304531455</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.514758921693313</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1.10010523950836</v>
-      </c>
-      <c r="C9">
-        <v>1.12279591879383</v>
-      </c>
-      <c r="D9">
-        <v>1.537163856773588</v>
-      </c>
-      <c r="E9">
-        <v>1.264524664494019</v>
-      </c>
-      <c r="F9">
-        <v>1.1351442256939</v>
-      </c>
-      <c r="G9">
-        <v>0.946760951598782</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="B9" t="n">
+        <v>1.430250195211952</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.155376492249369</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.488192404452393</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.753087288857656</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.51891216302563</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.13799147406875</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>0.8231969701403786</v>
-      </c>
-      <c r="C10">
-        <v>1.164292629627047</v>
-      </c>
-      <c r="D10">
-        <v>1.063463882421663</v>
-      </c>
-      <c r="E10">
-        <v>1.101371799224184</v>
-      </c>
-      <c r="F10">
-        <v>1.301639401483388</v>
-      </c>
-      <c r="G10">
-        <v>1.06516361803197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="B10" t="n">
+        <v>0.9532845950601859</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.103518407805996</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.571384607663866</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.195445423988937</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.43497435172701</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.430433385120905</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>0.7308399557844771</v>
-      </c>
-      <c r="C11">
-        <v>0.6789794128506424</v>
-      </c>
-      <c r="D11">
-        <v>0.6116870057193515</v>
-      </c>
-      <c r="E11">
-        <v>0.6490724813146383</v>
-      </c>
-      <c r="F11">
-        <v>0.9481986454493596</v>
-      </c>
-      <c r="G11">
-        <v>1.234403594205529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="B11" t="n">
+        <v>1.300662216019719</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.176242969947448</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.089599137774912</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9942292686070858</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.107947295385761</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.495104357081482</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0.9303135594904726</v>
-      </c>
-      <c r="C12">
-        <v>1.174207595199213</v>
-      </c>
-      <c r="D12">
-        <v>0.9822517680118442</v>
-      </c>
-      <c r="E12">
-        <v>1.135300177435434</v>
-      </c>
-      <c r="F12">
-        <v>1.281085910869446</v>
-      </c>
-      <c r="G12">
-        <v>1.341625807083262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
+      <c r="B12" t="n">
+        <v>0.6744971025037751</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9122697670502178</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.916969737080413</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.004574927895539</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.472956590245643</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.305519221255107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>0.898281320836375</v>
-      </c>
-      <c r="C13">
-        <v>0.8523280122664625</v>
-      </c>
-      <c r="D13">
-        <v>1.147700678224136</v>
-      </c>
-      <c r="E13">
-        <v>1.050865029082537</v>
-      </c>
-      <c r="F13">
-        <v>1.142395796240432</v>
-      </c>
-      <c r="G13">
-        <v>1.074238764262095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
+      <c r="B13" t="n">
+        <v>1.069622015290701</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.038900212950638</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.257378767614934</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.462310803508248</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.383123596262221</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.38867774727645</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>1.264939569612696</v>
-      </c>
-      <c r="C14">
-        <v>1.11724155029655</v>
-      </c>
-      <c r="D14">
-        <v>1.081276692631159</v>
-      </c>
-      <c r="E14">
-        <v>1.443104718815984</v>
-      </c>
-      <c r="F14">
-        <v>1.382728978810254</v>
-      </c>
-      <c r="G14">
-        <v>1.360412685622154</v>
+      <c r="B14" t="n">
+        <v>1.450560160102367</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.356071588192779</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.322298117515316</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.538054772193814</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.360272087482889</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.521646012010387</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>